--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\Project\PlumTowerDefence\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD27DE5-4AC9-4135-8957-89E34E68854C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C48B76-294A-4492-97B3-21C9D4E8277F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,14 +125,27 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -416,13 +429,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -453,8 +468,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -736,7 +753,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -750,75 +767,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="18" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="20"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>2</v>
       </c>
       <c r="I4" s="1"/>
@@ -827,11 +844,11 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>3</v>
       </c>
       <c r="I5" s="1"/>

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\Project\PlumTowerDefence\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C48B76-294A-4492-97B3-21C9D4E8277F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E82BB0-2F27-48D5-8650-B6D81DE01973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,74 @@
   </si>
   <si>
     <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PatternType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.22 17:58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최병찬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -424,6 +492,86 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -435,7 +583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -450,6 +598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,7 +617,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -750,41 +907,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="9.875" customWidth="1"/>
-    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" customWidth="1"/>
+    <col min="11" max="11" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
-    </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -807,7 +964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -817,20 +974,20 @@
       <c r="C3" s="13">
         <v>1</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -838,12 +995,20 @@
       <c r="C4" s="13">
         <v>2</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -856,41 +1021,174 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="26">
+        <v>2</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="29">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E82BB0-2F27-48D5-8650-B6D81DE01973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C17C003-B269-4E7C-AD4B-BB17DE2CFA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>최병찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.22 19:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,6 +611,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -617,15 +638,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -910,7 +922,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -924,22 +936,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="20"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
@@ -1016,10 +1028,18 @@
       <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I6" s="1"/>
@@ -1040,13 +1060,13 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="17" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="1"/>
@@ -1055,13 +1075,13 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="20">
         <v>1</v>
       </c>
       <c r="I10" s="1"/>
@@ -1070,11 +1090,11 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="20">
         <v>2</v>
       </c>
       <c r="I11" s="1"/>
@@ -1083,110 +1103,110 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="20">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="20">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="20">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="20">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="20">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="20">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="20">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="23">
         <v>14</v>
       </c>
     </row>

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\Project\PlumTowerDefence\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C17C003-B269-4E7C-AD4B-BB17DE2CFA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717364A2-E4DA-48B2-A58F-20D392F11339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -638,6 +638,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -922,20 +923,20 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" customWidth="1"/>
-    <col min="11" max="11" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -953,7 +954,7 @@
       <c r="K1" s="28"/>
       <c r="L1" s="29"/>
     </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -976,7 +977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1007,20 +1008,20 @@
       <c r="C4" s="13">
         <v>2</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -1028,38 +1029,38 @@
       <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -1074,7 +1075,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>33</v>
       </c>
@@ -1089,7 +1090,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
         <v>18</v>
@@ -1102,7 +1103,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>19</v>
@@ -1111,7 +1112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>20</v>
@@ -1120,7 +1121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>21</v>
@@ -1129,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
         <v>22</v>
@@ -1138,7 +1139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>23</v>
@@ -1147,7 +1148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>24</v>
@@ -1156,7 +1157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
         <v>25</v>
@@ -1165,7 +1166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>26</v>
@@ -1174,7 +1175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>27</v>
@@ -1183,7 +1184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
         <v>28</v>
@@ -1192,7 +1193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>29</v>
@@ -1201,7 +1202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="s">
         <v>30</v>

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C17C003-B269-4E7C-AD4B-BB17DE2CFA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9928833B-5371-4C88-9E7C-DD8C1EF398B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,34 @@
   </si>
   <si>
     <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lanebuff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treasure</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>김다희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.27 10:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapGimmickType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +241,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -595,7 +630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -637,6 +672,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -919,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1042,10 +1083,18 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I7" s="1"/>
@@ -1208,6 +1257,56 @@
       </c>
       <c r="C23" s="23">
         <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="18"/>
+      <c r="B29" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="18"/>
+      <c r="B30" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="21"/>
+      <c r="B31" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="23">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\Project\PlumTowerDefence\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9928833B-5371-4C88-9E7C-DD8C1EF398B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23F43F6-7455-4F1F-AF40-6DF6DE81AFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32835" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -655,6 +655,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -672,12 +678,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -962,39 +962,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" customWidth="1"/>
-    <col min="11" max="11" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1061,7 +1061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -1082,7 +1082,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I6" s="1" t="s">
         <v>41</v>
       </c>
@@ -1096,19 +1096,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>33</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
         <v>18</v>
@@ -1151,7 +1151,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>19</v>
@@ -1160,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>20</v>
@@ -1169,7 +1169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>21</v>
@@ -1178,7 +1178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
         <v>22</v>
@@ -1187,7 +1187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>23</v>
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>24</v>
@@ -1205,7 +1205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
         <v>25</v>
@@ -1214,7 +1214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>26</v>
@@ -1223,7 +1223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>27</v>
@@ -1232,7 +1232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
         <v>28</v>
@@ -1241,7 +1241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>29</v>
@@ -1250,7 +1250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="s">
         <v>30</v>
@@ -1259,8 +1259,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
@@ -1271,38 +1271,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="21"/>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="25" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="23">

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\Project\PlumTowerDefence\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23F43F6-7455-4F1F-AF40-6DF6DE81AFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C62114-590B-4ADB-9DF0-05B935EFFED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32835" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,10 +169,6 @@
   <si>
     <t>수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lanebuff</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Obstacle</t>
@@ -197,6 +193,37 @@
   <si>
     <t>MapGimmickType</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaneBuff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnetite</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crystal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.27 16:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.27 16:48</t>
   </si>
 </sst>
 </file>
@@ -960,23 +987,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="9.875" customWidth="1"/>
-    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" customWidth="1"/>
+    <col min="11" max="11" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1021,7 @@
       <c r="K1" s="30"/>
       <c r="L1" s="31"/>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1017,7 +1044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1061,7 +1088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -1082,33 +1109,49 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -1123,7 +1166,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>33</v>
       </c>
@@ -1138,7 +1181,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
         <v>18</v>
@@ -1151,7 +1194,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>19</v>
@@ -1160,7 +1203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>20</v>
@@ -1169,7 +1212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>21</v>
@@ -1178,7 +1221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
         <v>22</v>
@@ -1187,7 +1230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>23</v>
@@ -1196,7 +1239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>24</v>
@@ -1205,7 +1248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
         <v>25</v>
@@ -1214,7 +1257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>26</v>
@@ -1223,7 +1266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>27</v>
@@ -1232,7 +1275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
         <v>28</v>
@@ -1241,7 +1284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>29</v>
@@ -1250,7 +1293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="s">
         <v>30</v>
@@ -1259,8 +1302,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
@@ -1271,41 +1314,91 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>36</v>
       </c>
       <c r="C28" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="18"/>
       <c r="B29" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="21"/>
       <c r="B31" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="18"/>
+      <c r="B37" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="18"/>
+      <c r="B38" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="21"/>
+      <c r="B39" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="23">
         <v>4</v>
       </c>
     </row>

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\Project\PlumTowerDefence\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C62114-590B-4ADB-9DF0-05B935EFFED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FC4332-3920-4955-975D-739880A20626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -706,6 +706,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -990,20 +991,20 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" customWidth="1"/>
-    <col min="11" max="11" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1022,7 @@
       <c r="K1" s="30"/>
       <c r="L1" s="31"/>
     </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1075,20 +1076,20 @@
       <c r="C4" s="13">
         <v>2</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -1096,62 +1097,62 @@
       <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="I6" s="1" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="I7" s="1" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I7" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I8" s="1" t="s">
+    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -1166,7 +1167,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>33</v>
       </c>
@@ -1181,7 +1182,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
         <v>18</v>
@@ -1194,7 +1195,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>19</v>
@@ -1203,7 +1204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>20</v>
@@ -1212,7 +1213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>21</v>
@@ -1221,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
         <v>22</v>
@@ -1230,7 +1231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>23</v>
@@ -1239,7 +1240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>24</v>
@@ -1248,7 +1249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
         <v>25</v>
@@ -1257,7 +1258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>26</v>
@@ -1266,7 +1267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>27</v>
@@ -1275,7 +1276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
         <v>28</v>
@@ -1284,7 +1285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>29</v>
@@ -1293,7 +1294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="s">
         <v>30</v>
@@ -1302,8 +1303,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>41</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
       <c r="B29" s="24" t="s">
         <v>36</v>
@@ -1334,7 +1335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>37</v>
@@ -1343,7 +1344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="21"/>
       <c r="B31" s="25" t="s">
         <v>38</v>
@@ -1352,8 +1353,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>1</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>43</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="24" t="s">
         <v>45</v>
@@ -1384,7 +1385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>46</v>
@@ -1393,7 +1394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21"/>
       <c r="B39" s="25" t="s">
         <v>47</v>

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\Project\PlumTowerDefence\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FC4332-3920-4955-975D-739880A20626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D19DD9-2909-4171-9B87-D1427E00186C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,162 @@
   </si>
   <si>
     <t>08.27 16:48</t>
+  </si>
+  <si>
+    <t>Enumname</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeValue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canbuild</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MouseOn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interaction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Targeting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health-P</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield-P</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense-P</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack-T</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff-T</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debuff-T</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mining-T</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackProperty</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health-S</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield-S</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense-S</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>One</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.29 00:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신동훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canbuild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MouseOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -657,7 +813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -688,6 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,7 +863,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -988,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1005,22 +1182,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
@@ -1076,16 +1253,16 @@
       <c r="C4" s="13">
         <v>2</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="26" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1097,58 +1274,58 @@
       <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1162,10 +1339,18 @@
       <c r="C9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="I9" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
@@ -1177,10 +1362,18 @@
       <c r="C10" s="20">
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="I10" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
@@ -1190,10 +1383,18 @@
       <c r="C11" s="20">
         <v>2</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="I11" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
@@ -1203,6 +1404,18 @@
       <c r="C12" s="20">
         <v>3</v>
       </c>
+      <c r="I12" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
@@ -1212,6 +1425,18 @@
       <c r="C13" s="20">
         <v>4</v>
       </c>
+      <c r="I13" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
@@ -1221,6 +1446,18 @@
       <c r="C14" s="20">
         <v>5</v>
       </c>
+      <c r="I14" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
@@ -1230,6 +1467,18 @@
       <c r="C15" s="20">
         <v>6</v>
       </c>
+      <c r="I15" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
@@ -1401,6 +1650,320 @@
       </c>
       <c r="C39" s="23">
         <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="38"/>
+      <c r="B45" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="38"/>
+      <c r="B51" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="38"/>
+      <c r="B57" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="36"/>
+      <c r="B63" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="36"/>
+      <c r="B64" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="36"/>
+      <c r="B65" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="36"/>
+      <c r="B66" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="36"/>
+      <c r="B67" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="38"/>
+      <c r="B68" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="36"/>
+      <c r="B74" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="36"/>
+      <c r="B75" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="38"/>
+      <c r="B76" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="36"/>
+      <c r="B82" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="36"/>
+      <c r="B83" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="38"/>
+      <c r="B84" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="36"/>
+      <c r="B90" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="38"/>
+      <c r="B91" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="39">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D19DD9-2909-4171-9B87-D1427E00186C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270108AD-82CF-451D-B708-CCA970889A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4935" yWindow="930" windowWidth="21645" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="98">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,10 +226,6 @@
     <t>08.27 16:48</t>
   </si>
   <si>
-    <t>Enumname</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>TypeName</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -238,143 +234,183 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>EnumName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interaction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Targeting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health-P</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield-P</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense-P</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.29 00:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신동훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Canbuild</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MouseOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpecialization</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debuff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mining</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpecialization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackProjectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.29 16:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.29 16:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EnumName</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Selected</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MouseOn</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interaction</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Targeting</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upgrade</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Health-P</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield-P</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defense-P</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack-T</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff-T</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debuff-T</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mining-T</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackProperty</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Health-S</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield-S</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defense-S</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>One</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Three</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>08.29 00:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Typename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신동훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Canbuild</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Selected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MouseOn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackProperty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -813,7 +849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -845,24 +881,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -882,6 +900,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,16 +1216,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
     <col min="10" max="10" width="9.875" customWidth="1"/>
@@ -1182,22 +1233,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
@@ -1340,16 +1391,16 @@
         <v>3</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1363,16 +1414,16 @@
         <v>1</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1384,16 +1435,16 @@
         <v>2</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1405,16 +1456,16 @@
         <v>3</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1426,16 +1477,16 @@
         <v>4</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1447,16 +1498,16 @@
         <v>5</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1468,13 +1519,13 @@
         <v>6</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="L15" s="26" t="s">
         <v>15</v>
@@ -1488,8 +1539,20 @@
       <c r="C16" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>24</v>
@@ -1497,8 +1560,20 @@
       <c r="C17" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
         <v>25</v>
@@ -1506,8 +1581,20 @@
       <c r="C18" s="20">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>26</v>
@@ -1515,8 +1602,20 @@
       <c r="C19" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>27</v>
@@ -1524,8 +1623,20 @@
       <c r="C20" s="20">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
         <v>28</v>
@@ -1533,8 +1644,20 @@
       <c r="C21" s="20">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>29</v>
@@ -1543,7 +1666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="s">
         <v>30</v>
@@ -1552,8 +1675,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
@@ -1564,7 +1687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>41</v>
       </c>
@@ -1575,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
       <c r="B29" s="24" t="s">
         <v>36</v>
@@ -1584,7 +1707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>37</v>
@@ -1593,7 +1716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="21"/>
       <c r="B31" s="25" t="s">
         <v>38</v>
@@ -1654,317 +1777,243 @@
     </row>
     <row r="42" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="C43" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="35" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="30"/>
+      <c r="B45" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="30"/>
+      <c r="B46" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="30"/>
+      <c r="B47" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="30"/>
+      <c r="B48" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="30"/>
+      <c r="B49" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="32"/>
+      <c r="B50" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C44" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="38"/>
-      <c r="B45" s="25" t="b">
+      <c r="B54" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="31">
         <v>1</v>
       </c>
-      <c r="C45" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="34" t="s">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="30"/>
+      <c r="B57" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="30"/>
+      <c r="B58" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="30"/>
+      <c r="B59" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="21"/>
+      <c r="B60" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C50" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="38"/>
-      <c r="B51" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="C51" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C56" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="38"/>
-      <c r="B57" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="C57" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="36"/>
-      <c r="B63" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="36"/>
-      <c r="B64" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="37">
-        <v>3</v>
-      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="36"/>
+      <c r="A65" s="30" t="s">
+        <v>73</v>
+      </c>
       <c r="B65" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="37">
+      <c r="C65" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="30"/>
+      <c r="B66" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="30"/>
+      <c r="B67" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="32"/>
+      <c r="B68" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="33">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="36"/>
-      <c r="B66" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" s="37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="36"/>
-      <c r="B67" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C67" s="37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="38"/>
-      <c r="B68" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="41">
+        <v>1</v>
+      </c>
+    </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="37">
-        <v>1</v>
+      <c r="A72" s="18"/>
+      <c r="B72" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="18"/>
+      <c r="B73" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="41">
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="36"/>
-      <c r="B74" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="36"/>
-      <c r="B75" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="38"/>
-      <c r="B76" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C81" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="36"/>
-      <c r="B82" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C82" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="36"/>
-      <c r="B83" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C83" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="38"/>
-      <c r="B84" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C84" s="39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B88" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C88" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B89" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C89" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="36"/>
-      <c r="B90" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C90" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="38"/>
-      <c r="B91" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C91" s="39">
-        <v>3</v>
-      </c>
+      <c r="A74" s="16"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270108AD-82CF-451D-B708-CCA970889A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69B0387-85FB-4787-82B1-05830E883995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4935" yWindow="930" windowWidth="21645" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="3180" windowWidth="21645" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="102">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,18 +258,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Health-P</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield-P</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defense-P</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Default</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -415,6 +403,34 @@
   </si>
   <si>
     <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealthPriority</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldPriority</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefensePriority</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.30 14:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신동훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,6 +918,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -919,21 +950,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1218,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1233,22 +1249,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
@@ -1391,16 +1407,16 @@
         <v>3</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1414,16 +1430,16 @@
         <v>1</v>
       </c>
       <c r="I10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>65</v>
-      </c>
       <c r="L10" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1435,16 +1451,16 @@
         <v>2</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J11" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="26" t="s">
-        <v>66</v>
-      </c>
       <c r="L11" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1456,16 +1472,16 @@
         <v>3</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1477,16 +1493,16 @@
         <v>4</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K13" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="26" t="s">
         <v>68</v>
-      </c>
-      <c r="L13" s="26" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1498,16 +1514,16 @@
         <v>5</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1519,13 +1535,13 @@
         <v>6</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L15" s="26" t="s">
         <v>15</v>
@@ -1540,16 +1556,16 @@
         <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1561,16 +1577,16 @@
         <v>8</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1582,16 +1598,16 @@
         <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" t="s">
         <v>63</v>
       </c>
-      <c r="K18" t="s">
-        <v>66</v>
-      </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1603,13 +1619,13 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L19" t="s">
         <v>35</v>
@@ -1624,16 +1640,16 @@
         <v>11</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1645,16 +1661,16 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1665,6 +1681,18 @@
       <c r="C22" s="20">
         <v>13</v>
       </c>
+      <c r="I22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21"/>
@@ -1828,7 +1856,7 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="30"/>
       <c r="B48" s="24" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C48" s="31">
         <v>5</v>
@@ -1837,7 +1865,7 @@
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="24" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C49" s="31">
         <v>6</v>
@@ -1846,7 +1874,7 @@
     <row r="50" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="32"/>
       <c r="B50" s="25" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C50" s="33">
         <v>7</v>
@@ -1866,10 +1894,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C55" s="31">
         <v>1</v>
@@ -1877,16 +1905,16 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56">
+        <v>83</v>
+      </c>
+      <c r="C56" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="30"/>
       <c r="B57" s="24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C57" s="31">
         <v>3</v>
@@ -1895,7 +1923,7 @@
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="30"/>
       <c r="B58" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C58" s="31">
         <v>4</v>
@@ -1904,7 +1932,7 @@
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="30"/>
       <c r="B59" s="24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C59" s="31">
         <v>5</v>
@@ -1912,10 +1940,10 @@
     </row>
     <row r="60" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="21"/>
-      <c r="B60" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="43">
+      <c r="B60" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="37">
         <v>6</v>
       </c>
     </row>
@@ -1933,10 +1961,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C65" s="31">
         <v>1</v>
@@ -1945,7 +1973,7 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
       <c r="B66" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C66" s="31">
         <v>2</v>
@@ -1954,7 +1982,7 @@
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="30"/>
       <c r="B67" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C67" s="31">
         <v>3</v>
@@ -1963,7 +1991,7 @@
     <row r="68" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="32"/>
       <c r="B68" s="25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C68" s="33">
         <v>4</v>
@@ -1972,48 +2000,48 @@
     <row r="69" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B70" s="44" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>88</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B71" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" s="41">
+        <v>87</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
-      <c r="B72" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" s="41">
+      <c r="B72" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="18"/>
-      <c r="B73" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" s="41">
+      <c r="B73" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="16"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\다운로드\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\PlumTowerDefecne-main\PlumTowerDefecne-main\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98E4AB8-CCB9-4105-94C0-8882D13672E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D8F02B-4F2E-4A2A-9694-0A35805B990D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="4350" windowWidth="21645" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="119">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,18 +382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackStat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AbilityStat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedStat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TypeValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -487,6 +475,30 @@
   </si>
   <si>
     <t>MonsterClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.31 01:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신동훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1293,21 +1305,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" customWidth="1"/>
-    <col min="11" max="11" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1337,7 @@
       <c r="K1" s="44"/>
       <c r="L1" s="45"/>
     </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1348,7 +1360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -1371,7 +1383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1392,7 +1404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -1413,7 +1425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I6" s="26" t="s">
         <v>40</v>
       </c>
@@ -1427,7 +1439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I7" s="26" t="s">
         <v>48</v>
       </c>
@@ -1441,7 +1453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I8" s="26" t="s">
         <v>49</v>
       </c>
@@ -1455,7 +1467,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>33</v>
       </c>
@@ -1501,7 +1513,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
         <v>18</v>
@@ -1522,7 +1534,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>19</v>
@@ -1543,7 +1555,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>20</v>
@@ -1564,7 +1576,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>21</v>
@@ -1585,7 +1597,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
         <v>22</v>
@@ -1606,7 +1618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>23</v>
@@ -1627,7 +1639,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>24</v>
@@ -1648,7 +1660,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
         <v>25</v>
@@ -1669,7 +1681,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>26</v>
@@ -1690,7 +1702,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>27</v>
@@ -1711,7 +1723,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
         <v>28</v>
@@ -1723,16 +1735,16 @@
         <v>85</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s">
         <v>87</v>
       </c>
       <c r="L21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>29</v>
@@ -1741,19 +1753,19 @@
         <v>13</v>
       </c>
       <c r="I22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" t="s">
         <v>98</v>
       </c>
-      <c r="J22" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" t="s">
-        <v>100</v>
-      </c>
-      <c r="L22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="s">
         <v>30</v>
@@ -1762,34 +1774,48 @@
         <v>14</v>
       </c>
       <c r="I23" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" t="s">
         <v>110</v>
       </c>
-      <c r="J23" t="s">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" t="s">
         <v>111</v>
       </c>
-      <c r="K23" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>110</v>
       </c>
-      <c r="J24" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24" t="s">
-        <v>114</v>
-      </c>
-      <c r="L24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
@@ -1800,7 +1826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>41</v>
       </c>
@@ -1811,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
       <c r="B29" s="24" t="s">
         <v>36</v>
@@ -1820,7 +1846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>37</v>
@@ -1829,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="21"/>
       <c r="B31" s="25" t="s">
         <v>38</v>
@@ -1838,8 +1864,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>1</v>
       </c>
@@ -1850,7 +1876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>43</v>
       </c>
@@ -1861,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="24" t="s">
         <v>45</v>
@@ -1870,7 +1896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>46</v>
@@ -1879,7 +1905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21"/>
       <c r="B39" s="25" t="s">
         <v>47</v>
@@ -1888,8 +1914,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
         <v>52</v>
       </c>
@@ -1900,7 +1926,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="30" t="s">
         <v>53</v>
       </c>
@@ -1911,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="30"/>
       <c r="B45" s="24" t="s">
         <v>55</v>
@@ -1920,7 +1946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="30"/>
       <c r="B46" s="24" t="s">
         <v>56</v>
@@ -1929,7 +1955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="30"/>
       <c r="B47" s="24" t="s">
         <v>57</v>
@@ -1938,35 +1964,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="30"/>
       <c r="B48" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C48" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C49" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="32"/>
       <c r="B50" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C50" s="33">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
         <v>52</v>
       </c>
@@ -1977,7 +2003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="30" t="s">
         <v>69</v>
       </c>
@@ -1988,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>83</v>
       </c>
@@ -1996,7 +2022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="30"/>
       <c r="B57" s="24" t="s">
         <v>75</v>
@@ -2005,7 +2031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="30"/>
       <c r="B58" s="24" t="s">
         <v>76</v>
@@ -2014,7 +2040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="30"/>
       <c r="B59" s="24" t="s">
         <v>77</v>
@@ -2023,7 +2049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="21"/>
       <c r="B60" s="36" t="s">
         <v>78</v>
@@ -2032,8 +2058,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="27" t="s">
         <v>52</v>
       </c>
@@ -2044,7 +2070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="30" t="s">
         <v>70</v>
       </c>
@@ -2055,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
       <c r="B66" s="24" t="s">
         <v>71</v>
@@ -2064,7 +2090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="30"/>
       <c r="B67" s="24" t="s">
         <v>72</v>
@@ -2073,7 +2099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="32"/>
       <c r="B68" s="25" t="s">
         <v>73</v>
@@ -2082,8 +2108,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>86</v>
       </c>
@@ -2091,44 +2117,44 @@
         <v>88</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C71" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="34" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C72" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="18"/>
       <c r="B73" s="34" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C73" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="16"/>
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
@@ -2139,45 +2165,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C79" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C80" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C81" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -2188,30 +2214,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C86" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C87" s="1">
         <v>3</v>

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\PlumTowerDefecne-main\PlumTowerDefecne-main\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D8F02B-4F2E-4A2A-9694-0A35805B990D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C785433-7B40-4802-9042-B484B3EC351D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="4350" windowWidth="21645" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="128">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,38 +426,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.30 14:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강민재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.31 01:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신동훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubBoss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08.30 14:54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강민재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,35 +514,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterClass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterClass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08.31 01:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신동훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpgradeStat</t>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.31 15:18</t>
+  </si>
+  <si>
+    <t>08.31 15:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강민재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterStat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1303,23 +1338,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="9.875" customWidth="1"/>
-    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" customWidth="1"/>
+    <col min="11" max="11" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1372,7 @@
       <c r="K1" s="44"/>
       <c r="L1" s="45"/>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -1383,7 +1418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1404,7 +1439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -1425,7 +1460,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I6" s="26" t="s">
         <v>40</v>
       </c>
@@ -1439,7 +1474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I7" s="26" t="s">
         <v>48</v>
       </c>
@@ -1453,7 +1488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I8" s="26" t="s">
         <v>49</v>
       </c>
@@ -1467,7 +1502,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -1490,7 +1525,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>33</v>
       </c>
@@ -1513,7 +1548,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
         <v>18</v>
@@ -1534,7 +1569,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>19</v>
@@ -1555,7 +1590,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>20</v>
@@ -1576,7 +1611,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>21</v>
@@ -1597,7 +1632,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
         <v>22</v>
@@ -1618,7 +1653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>23</v>
@@ -1639,7 +1674,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>24</v>
@@ -1660,7 +1695,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
         <v>25</v>
@@ -1681,7 +1716,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>26</v>
@@ -1702,7 +1737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>27</v>
@@ -1723,7 +1758,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
         <v>28</v>
@@ -1744,7 +1779,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>29</v>
@@ -1765,7 +1800,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="s">
         <v>30</v>
@@ -1774,48 +1809,61 @@
         <v>14</v>
       </c>
       <c r="I23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" t="s">
         <v>107</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>108</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>109</v>
       </c>
-      <c r="L23" t="s">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I24" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I24" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" t="s">
-        <v>111</v>
-      </c>
       <c r="L24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I25" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" t="s">
         <v>115</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>116</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>117</v>
       </c>
-      <c r="L25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
@@ -1825,8 +1873,20 @@
       <c r="C27" s="17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" t="s">
+        <v>126</v>
+      </c>
+      <c r="L27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="18" t="s">
         <v>41</v>
       </c>
@@ -1837,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="18"/>
       <c r="B29" s="24" t="s">
         <v>36</v>
@@ -1846,7 +1906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>37</v>
@@ -1855,7 +1915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="21"/>
       <c r="B31" s="25" t="s">
         <v>38</v>
@@ -1864,8 +1924,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>1</v>
       </c>
@@ -1876,7 +1936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="18" t="s">
         <v>43</v>
       </c>
@@ -1887,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="18"/>
       <c r="B37" s="24" t="s">
         <v>45</v>
@@ -1896,7 +1956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>46</v>
@@ -1905,7 +1965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="21"/>
       <c r="B39" s="25" t="s">
         <v>47</v>
@@ -1914,8 +1974,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="27" t="s">
         <v>52</v>
       </c>
@@ -1926,7 +1986,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="30" t="s">
         <v>53</v>
       </c>
@@ -1937,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="30"/>
       <c r="B45" s="24" t="s">
         <v>55</v>
@@ -1946,7 +2006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="30"/>
       <c r="B46" s="24" t="s">
         <v>56</v>
@@ -1955,7 +2015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="30"/>
       <c r="B47" s="24" t="s">
         <v>57</v>
@@ -1964,7 +2024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="30"/>
       <c r="B48" s="24" t="s">
         <v>92</v>
@@ -1973,7 +2033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="30"/>
       <c r="B49" s="24" t="s">
         <v>93</v>
@@ -1982,7 +2042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="32"/>
       <c r="B50" s="25" t="s">
         <v>94</v>
@@ -1991,8 +2051,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="27" t="s">
         <v>52</v>
       </c>
@@ -2003,7 +2063,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="30" t="s">
         <v>69</v>
       </c>
@@ -2014,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>83</v>
       </c>
@@ -2022,7 +2082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="30"/>
       <c r="B57" s="24" t="s">
         <v>75</v>
@@ -2031,7 +2091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="30"/>
       <c r="B58" s="24" t="s">
         <v>76</v>
@@ -2040,7 +2100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="30"/>
       <c r="B59" s="24" t="s">
         <v>77</v>
@@ -2049,7 +2109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="21"/>
       <c r="B60" s="36" t="s">
         <v>78</v>
@@ -2058,8 +2118,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="27" t="s">
         <v>52</v>
       </c>
@@ -2070,7 +2130,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="30" t="s">
         <v>70</v>
       </c>
@@ -2081,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="30"/>
       <c r="B66" s="24" t="s">
         <v>71</v>
@@ -2090,7 +2150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="30"/>
       <c r="B67" s="24" t="s">
         <v>72</v>
@@ -2099,7 +2159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="32"/>
       <c r="B68" s="25" t="s">
         <v>73</v>
@@ -2108,8 +2168,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="15" t="s">
         <v>86</v>
       </c>
@@ -2120,41 +2180,41 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C71" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="18"/>
       <c r="B72" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C72" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="18"/>
       <c r="B73" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="16"/>
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
@@ -2165,81 +2225,90 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="39" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C79" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C80" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C81" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" s="1"/>
+      <c r="B82" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B85" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B85" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C85" s="1">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C86" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
       <c r="B87" s="39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C87" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" s="1"/>
+      <c r="B88" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2250,5 +2319,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\Project\PlumTowerDefence\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C785433-7B40-4802-9042-B484B3EC351D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75387801-B2C8-4A44-89D7-6B89519656D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -968,7 +968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1057,6 +1057,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -1340,21 +1341,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" customWidth="1"/>
-    <col min="11" max="11" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1373,7 @@
       <c r="K1" s="44"/>
       <c r="L1" s="45"/>
     </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1439,7 +1440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -1460,7 +1461,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I6" s="26" t="s">
         <v>40</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I7" s="26" t="s">
         <v>48</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I8" s="26" t="s">
         <v>49</v>
       </c>
@@ -1502,7 +1503,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>33</v>
       </c>
@@ -1548,7 +1549,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
         <v>18</v>
@@ -1569,7 +1570,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>19</v>
@@ -1590,7 +1591,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>20</v>
@@ -1611,7 +1612,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>21</v>
@@ -1632,7 +1633,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
         <v>22</v>
@@ -1653,7 +1654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>23</v>
@@ -1661,20 +1662,20 @@
       <c r="C16" s="20">
         <v>7</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="46" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>24</v>
@@ -1682,20 +1683,20 @@
       <c r="C17" s="20">
         <v>8</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="46" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
         <v>25</v>
@@ -1703,20 +1704,20 @@
       <c r="C18" s="20">
         <v>9</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="46" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>26</v>
@@ -1724,20 +1725,20 @@
       <c r="C19" s="20">
         <v>10</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>27</v>
@@ -1745,20 +1746,20 @@
       <c r="C20" s="20">
         <v>11</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
         <v>28</v>
@@ -1766,20 +1767,20 @@
       <c r="C21" s="20">
         <v>12</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>29</v>
@@ -1787,20 +1788,20 @@
       <c r="C22" s="20">
         <v>13</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="46" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="s">
         <v>30</v>
@@ -1808,62 +1809,62 @@
       <c r="C23" s="23">
         <v>14</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="46" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="I24" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I24" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="46" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="I25" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I25" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="46" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I26" t="s">
+    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I26" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="46" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
@@ -1873,20 +1874,20 @@
       <c r="C27" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="46" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>41</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
       <c r="B29" s="24" t="s">
         <v>36</v>
@@ -1906,7 +1907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>37</v>
@@ -1915,7 +1916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="21"/>
       <c r="B31" s="25" t="s">
         <v>38</v>
@@ -1924,8 +1925,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>1</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>43</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="24" t="s">
         <v>45</v>
@@ -1956,7 +1957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>46</v>
@@ -1965,7 +1966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21"/>
       <c r="B39" s="25" t="s">
         <v>47</v>
@@ -1974,8 +1975,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
         <v>52</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="30" t="s">
         <v>53</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="30"/>
       <c r="B45" s="24" t="s">
         <v>55</v>
@@ -2006,7 +2007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="30"/>
       <c r="B46" s="24" t="s">
         <v>56</v>
@@ -2015,7 +2016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="30"/>
       <c r="B47" s="24" t="s">
         <v>57</v>
@@ -2024,7 +2025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="30"/>
       <c r="B48" s="24" t="s">
         <v>92</v>
@@ -2033,7 +2034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="24" t="s">
         <v>93</v>
@@ -2042,7 +2043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="32"/>
       <c r="B50" s="25" t="s">
         <v>94</v>
@@ -2051,8 +2052,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
         <v>52</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="30" t="s">
         <v>69</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>83</v>
       </c>
@@ -2082,7 +2083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="30"/>
       <c r="B57" s="24" t="s">
         <v>75</v>
@@ -2091,7 +2092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="30"/>
       <c r="B58" s="24" t="s">
         <v>76</v>
@@ -2100,7 +2101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="30"/>
       <c r="B59" s="24" t="s">
         <v>77</v>
@@ -2109,7 +2110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="21"/>
       <c r="B60" s="36" t="s">
         <v>78</v>
@@ -2118,8 +2119,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="27" t="s">
         <v>52</v>
       </c>
@@ -2130,7 +2131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="30" t="s">
         <v>70</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
       <c r="B66" s="24" t="s">
         <v>71</v>
@@ -2150,7 +2151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="30"/>
       <c r="B67" s="24" t="s">
         <v>72</v>
@@ -2159,7 +2160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="32"/>
       <c r="B68" s="25" t="s">
         <v>73</v>
@@ -2168,8 +2169,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>86</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
         <v>87</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="34" t="s">
         <v>113</v>
@@ -2200,7 +2201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="18"/>
       <c r="B73" s="34" t="s">
         <v>102</v>
@@ -2209,12 +2210,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="16"/>
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
@@ -2225,7 +2226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>99</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="39" t="s">
         <v>119</v>
@@ -2245,7 +2246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="39" t="s">
         <v>100</v>
@@ -2254,7 +2255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="39" t="s">
         <v>101</v>
@@ -2263,7 +2264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="39" t="s">
         <v>102</v>
@@ -2272,7 +2273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>111</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="39" t="s">
         <v>104</v>
@@ -2303,7 +2304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="39" t="s">
         <v>105</v>

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\Project\PlumTowerDefence\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75387801-B2C8-4A44-89D7-6B89519656D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7557951A-B5CC-4753-BE9D-9307D08F10E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="1215" windowWidth="23880" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="146">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,6 +534,78 @@
   </si>
   <si>
     <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Typename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hourglass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gatling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.03 23:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신동훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1039,6 +1111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1057,7 +1130,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -1339,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1356,22 +1428,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
@@ -1662,16 +1734,16 @@
       <c r="C16" s="20">
         <v>7</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="46" t="s">
+      <c r="K16" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="L16" s="46" t="s">
+      <c r="L16" s="40" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1683,16 +1755,16 @@
       <c r="C17" s="20">
         <v>8</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="46" t="s">
+      <c r="J17" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="46" t="s">
+      <c r="K17" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="L17" s="46" t="s">
+      <c r="L17" s="40" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1704,16 +1776,16 @@
       <c r="C18" s="20">
         <v>9</v>
       </c>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="46" t="s">
+      <c r="J18" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="46" t="s">
+      <c r="K18" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="46" t="s">
+      <c r="L18" s="40" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1725,16 +1797,16 @@
       <c r="C19" s="20">
         <v>10</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="46" t="s">
+      <c r="J19" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="K19" s="46" t="s">
+      <c r="K19" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="L19" s="46" t="s">
+      <c r="L19" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1746,16 +1818,16 @@
       <c r="C20" s="20">
         <v>11</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="46" t="s">
+      <c r="K20" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="L20" s="46" t="s">
+      <c r="L20" s="40" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1767,16 +1839,16 @@
       <c r="C21" s="20">
         <v>12</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="46" t="s">
+      <c r="J21" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="46" t="s">
+      <c r="K21" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="L21" s="46" t="s">
+      <c r="L21" s="40" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1788,16 +1860,16 @@
       <c r="C22" s="20">
         <v>13</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="46" t="s">
+      <c r="J22" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="K22" s="46" t="s">
+      <c r="K22" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="L22" s="46" t="s">
+      <c r="L22" s="40" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1809,58 +1881,58 @@
       <c r="C23" s="23">
         <v>14</v>
       </c>
-      <c r="I23" s="46" t="s">
+      <c r="I23" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="J23" s="46" t="s">
+      <c r="J23" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="K23" s="46" t="s">
+      <c r="K23" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="46" t="s">
+      <c r="L23" s="40" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="46" t="s">
+      <c r="J24" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="K24" s="46" t="s">
+      <c r="K24" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="L24" s="46" t="s">
+      <c r="L24" s="40" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I25" s="46" t="s">
+      <c r="I25" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="J25" s="46" t="s">
+      <c r="J25" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="K25" s="46" t="s">
+      <c r="K25" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="L25" s="46" t="s">
+      <c r="L25" s="40" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I26" s="46" t="s">
+      <c r="I26" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="46" t="s">
+      <c r="J26" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="K26" s="46" t="s">
+      <c r="K26" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="L26" s="46" t="s">
+      <c r="L26" s="40" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1874,16 +1946,16 @@
       <c r="C27" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="J27" s="46" t="s">
+      <c r="J27" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="46" t="s">
+      <c r="K27" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="L27" s="46" t="s">
+      <c r="L27" s="40" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1896,6 +1968,18 @@
       </c>
       <c r="C28" s="20">
         <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" t="s">
+        <v>131</v>
+      </c>
+      <c r="L28" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -2311,6 +2395,119 @@
       </c>
       <c r="C88" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="18"/>
+      <c r="B92" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="18"/>
+      <c r="B93" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="18"/>
+      <c r="B94" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="18"/>
+      <c r="B95" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="18"/>
+      <c r="B96" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="18"/>
+      <c r="B97" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C97" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="18"/>
+      <c r="B98" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="18"/>
+      <c r="B99" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="18"/>
+      <c r="B100" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="21"/>
+      <c r="B101" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C101" s="23">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7557951A-B5CC-4753-BE9D-9307D08F10E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BCA971-FA56-4281-8EE7-DEB6AF6158FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="1215" windowWidth="23880" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="2175" windowWidth="23880" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="153">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -606,6 +606,34 @@
   </si>
   <si>
     <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.03 13:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신동훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1040,7 +1068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1130,6 +1158,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -1411,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28:L28"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1990,6 +2020,18 @@
       <c r="C29" s="20">
         <v>2</v>
       </c>
+      <c r="I29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J29" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" t="s">
+        <v>150</v>
+      </c>
+      <c r="L29" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
@@ -2501,13 +2543,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="21"/>
-      <c r="B101" s="36" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="18"/>
+      <c r="B101" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C101" s="23">
+      <c r="C101" s="20">
         <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" s="47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="22"/>
+      <c r="B104" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="48">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BCA971-FA56-4281-8EE7-DEB6AF6158FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25873225-89FB-42D2-8001-67FEBDFE8EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="2175" windowWidth="23880" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="158">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,6 +634,26 @@
   </si>
   <si>
     <t>Mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.04 16:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강민재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,7 +1088,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1140,6 +1160,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1158,8 +1180,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -1441,41 +1462,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="9.875" customWidth="1"/>
-    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" customWidth="1"/>
+    <col min="11" max="11" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="46"/>
-    </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1498,7 +1519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -1521,7 +1542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1542,7 +1563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -1563,7 +1584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I6" s="26" t="s">
         <v>40</v>
       </c>
@@ -1577,7 +1598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I7" s="26" t="s">
         <v>48</v>
       </c>
@@ -1591,7 +1612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I8" s="26" t="s">
         <v>49</v>
       </c>
@@ -1605,7 +1626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -1628,7 +1649,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>33</v>
       </c>
@@ -1651,7 +1672,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
         <v>18</v>
@@ -1672,7 +1693,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>19</v>
@@ -1693,7 +1714,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>20</v>
@@ -1714,7 +1735,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>21</v>
@@ -1735,7 +1756,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
         <v>22</v>
@@ -1756,7 +1777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>23</v>
@@ -1777,7 +1798,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>24</v>
@@ -1798,7 +1819,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
         <v>25</v>
@@ -1819,7 +1840,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>26</v>
@@ -1840,7 +1861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>27</v>
@@ -1861,7 +1882,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
         <v>28</v>
@@ -1882,7 +1903,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>29</v>
@@ -1903,7 +1924,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="s">
         <v>30</v>
@@ -1924,7 +1945,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I24" s="40" t="s">
         <v>106</v>
       </c>
@@ -1938,7 +1959,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I25" s="40" t="s">
         <v>114</v>
       </c>
@@ -1952,7 +1973,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I26" s="40" t="s">
         <v>123</v>
       </c>
@@ -1966,7 +1987,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
@@ -1989,7 +2010,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="18" t="s">
         <v>41</v>
       </c>
@@ -2012,7 +2033,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="18"/>
       <c r="B29" s="24" t="s">
         <v>36</v>
@@ -2033,7 +2054,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>37</v>
@@ -2041,8 +2062,20 @@
       <c r="C30" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I30" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="J30" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="K30" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="L30" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="21"/>
       <c r="B31" s="25" t="s">
         <v>38</v>
@@ -2051,8 +2084,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>1</v>
       </c>
@@ -2063,7 +2096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="18" t="s">
         <v>43</v>
       </c>
@@ -2074,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="18"/>
       <c r="B37" s="24" t="s">
         <v>45</v>
@@ -2083,7 +2116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>46</v>
@@ -2092,7 +2125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="21"/>
       <c r="B39" s="25" t="s">
         <v>47</v>
@@ -2101,8 +2134,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="27" t="s">
         <v>52</v>
       </c>
@@ -2113,7 +2146,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="30" t="s">
         <v>53</v>
       </c>
@@ -2124,7 +2157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="30"/>
       <c r="B45" s="24" t="s">
         <v>55</v>
@@ -2133,7 +2166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="30"/>
       <c r="B46" s="24" t="s">
         <v>56</v>
@@ -2142,7 +2175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="30"/>
       <c r="B47" s="24" t="s">
         <v>57</v>
@@ -2151,7 +2184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="30"/>
       <c r="B48" s="24" t="s">
         <v>92</v>
@@ -2160,7 +2193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="30"/>
       <c r="B49" s="24" t="s">
         <v>93</v>
@@ -2169,7 +2202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="32"/>
       <c r="B50" s="25" t="s">
         <v>94</v>
@@ -2178,8 +2211,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="27" t="s">
         <v>52</v>
       </c>
@@ -2190,7 +2223,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="30" t="s">
         <v>69</v>
       </c>
@@ -2201,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>83</v>
       </c>
@@ -2209,7 +2242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="30"/>
       <c r="B57" s="24" t="s">
         <v>75</v>
@@ -2218,7 +2251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="30"/>
       <c r="B58" s="24" t="s">
         <v>76</v>
@@ -2227,7 +2260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="30"/>
       <c r="B59" s="24" t="s">
         <v>77</v>
@@ -2236,7 +2269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="21"/>
       <c r="B60" s="36" t="s">
         <v>78</v>
@@ -2245,8 +2278,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="27" t="s">
         <v>52</v>
       </c>
@@ -2257,7 +2290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="30" t="s">
         <v>70</v>
       </c>
@@ -2268,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="30"/>
       <c r="B66" s="24" t="s">
         <v>71</v>
@@ -2277,7 +2310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="30"/>
       <c r="B67" s="24" t="s">
         <v>72</v>
@@ -2286,7 +2319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="32"/>
       <c r="B68" s="25" t="s">
         <v>73</v>
@@ -2295,8 +2328,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="15" t="s">
         <v>86</v>
       </c>
@@ -2307,7 +2340,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="18" t="s">
         <v>87</v>
       </c>
@@ -2318,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="18"/>
       <c r="B72" s="34" t="s">
         <v>113</v>
@@ -2327,7 +2360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="18"/>
       <c r="B73" s="34" t="s">
         <v>102</v>
@@ -2336,12 +2369,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="16"/>
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
@@ -2352,7 +2385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>99</v>
       </c>
@@ -2363,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="39" t="s">
         <v>119</v>
@@ -2372,7 +2405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="39" t="s">
         <v>100</v>
@@ -2381,7 +2414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="39" t="s">
         <v>101</v>
@@ -2390,7 +2423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="39" t="s">
         <v>102</v>
@@ -2399,181 +2432,190 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" s="1"/>
+      <c r="B83" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B86" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B87" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C87" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-      <c r="B87" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
       <c r="B88" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" s="1"/>
+      <c r="B89" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C89" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="15" t="s">
+    <row r="90" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B90" s="38" t="s">
+      <c r="B91" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C91" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="18" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B92" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="C91" s="20">
+      <c r="C92" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="18"/>
-      <c r="B92" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="C92" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="18"/>
       <c r="B93" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C93" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="18"/>
       <c r="B94" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C94" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="18"/>
       <c r="B95" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C95" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="18"/>
       <c r="B96" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C96" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="18"/>
       <c r="B97" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C97" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="18"/>
       <c r="B98" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C98" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="18"/>
       <c r="B99" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C99" s="20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="18"/>
       <c r="B100" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C100" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="18"/>
       <c r="B101" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102" s="18"/>
+      <c r="B102" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C102" s="20">
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B102" s="34" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B103" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C102" s="47">
+      <c r="C103" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B103" s="34" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B104" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C103" s="47">
+      <c r="C104" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="22"/>
-      <c r="B104" s="36" t="s">
+    <row r="105" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="22"/>
+      <c r="B105" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C104" s="48">
+      <c r="C105" s="42">
         <v>14</v>
       </c>
     </row>

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\Project\PlumTowerDefence\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25873225-89FB-42D2-8001-67FEBDFE8EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078A99AB-7C2D-4417-A96D-124806FDCAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="157">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -622,10 +622,6 @@
   </si>
   <si>
     <t>신동훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1162,6 +1158,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1180,7 +1177,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -1464,39 +1460,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L30" sqref="I27:L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" customWidth="1"/>
-    <col min="11" max="11" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="49"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1519,7 +1515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -1542,7 +1538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1563,7 +1559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -1584,7 +1580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I6" s="26" t="s">
         <v>40</v>
       </c>
@@ -1598,7 +1594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I7" s="26" t="s">
         <v>48</v>
       </c>
@@ -1612,7 +1608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I8" s="26" t="s">
         <v>49</v>
       </c>
@@ -1626,7 +1622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -1649,7 +1645,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>33</v>
       </c>
@@ -1672,7 +1668,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
         <v>18</v>
@@ -1693,7 +1689,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>19</v>
@@ -1714,7 +1710,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>20</v>
@@ -1735,7 +1731,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>21</v>
@@ -1756,7 +1752,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
         <v>22</v>
@@ -1777,7 +1773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>23</v>
@@ -1798,7 +1794,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>24</v>
@@ -1819,7 +1815,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
         <v>25</v>
@@ -1840,7 +1836,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>26</v>
@@ -1861,7 +1857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>27</v>
@@ -1882,7 +1878,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
         <v>28</v>
@@ -1903,7 +1899,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>29</v>
@@ -1924,7 +1920,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="s">
         <v>30</v>
@@ -1945,7 +1941,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I24" s="40" t="s">
         <v>106</v>
       </c>
@@ -1959,7 +1955,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I25" s="40" t="s">
         <v>114</v>
       </c>
@@ -1973,7 +1969,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I26" s="40" t="s">
         <v>123</v>
       </c>
@@ -1987,7 +1983,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
@@ -2010,7 +2006,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>41</v>
       </c>
@@ -2020,20 +2016,20 @@
       <c r="C28" s="20">
         <v>1</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="40" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
       <c r="B29" s="24" t="s">
         <v>36</v>
@@ -2041,20 +2037,20 @@
       <c r="C29" s="20">
         <v>2</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="L29" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="L29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>37</v>
@@ -2063,19 +2059,19 @@
         <v>3</v>
       </c>
       <c r="I30" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="J30" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="J30" s="40" t="s">
+      <c r="K30" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="K30" s="40" t="s">
+      <c r="L30" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="L30" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="21"/>
       <c r="B31" s="25" t="s">
         <v>38</v>
@@ -2084,8 +2080,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>1</v>
       </c>
@@ -2096,7 +2092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>43</v>
       </c>
@@ -2107,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="24" t="s">
         <v>45</v>
@@ -2116,7 +2112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>46</v>
@@ -2125,7 +2121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21"/>
       <c r="B39" s="25" t="s">
         <v>47</v>
@@ -2134,8 +2130,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
         <v>52</v>
       </c>
@@ -2146,7 +2142,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="30" t="s">
         <v>53</v>
       </c>
@@ -2157,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="30"/>
       <c r="B45" s="24" t="s">
         <v>55</v>
@@ -2166,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="30"/>
       <c r="B46" s="24" t="s">
         <v>56</v>
@@ -2175,7 +2171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="30"/>
       <c r="B47" s="24" t="s">
         <v>57</v>
@@ -2184,7 +2180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="30"/>
       <c r="B48" s="24" t="s">
         <v>92</v>
@@ -2193,7 +2189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="24" t="s">
         <v>93</v>
@@ -2202,7 +2198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="32"/>
       <c r="B50" s="25" t="s">
         <v>94</v>
@@ -2211,8 +2207,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
         <v>52</v>
       </c>
@@ -2223,7 +2219,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="30" t="s">
         <v>69</v>
       </c>
@@ -2234,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>83</v>
       </c>
@@ -2242,7 +2238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="30"/>
       <c r="B57" s="24" t="s">
         <v>75</v>
@@ -2251,7 +2247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="30"/>
       <c r="B58" s="24" t="s">
         <v>76</v>
@@ -2260,7 +2256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="30"/>
       <c r="B59" s="24" t="s">
         <v>77</v>
@@ -2269,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="21"/>
       <c r="B60" s="36" t="s">
         <v>78</v>
@@ -2278,8 +2274,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="27" t="s">
         <v>52</v>
       </c>
@@ -2290,7 +2286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="30" t="s">
         <v>70</v>
       </c>
@@ -2301,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
       <c r="B66" s="24" t="s">
         <v>71</v>
@@ -2310,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="30"/>
       <c r="B67" s="24" t="s">
         <v>72</v>
@@ -2319,7 +2315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="32"/>
       <c r="B68" s="25" t="s">
         <v>73</v>
@@ -2328,8 +2324,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>86</v>
       </c>
@@ -2340,7 +2336,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
         <v>87</v>
       </c>
@@ -2351,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="34" t="s">
         <v>113</v>
@@ -2360,7 +2356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="18"/>
       <c r="B73" s="34" t="s">
         <v>102</v>
@@ -2369,12 +2365,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="16"/>
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
@@ -2385,7 +2381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>99</v>
       </c>
@@ -2396,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="39" t="s">
         <v>119</v>
@@ -2405,7 +2401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="39" t="s">
         <v>100</v>
@@ -2414,7 +2410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="39" t="s">
         <v>101</v>
@@ -2423,7 +2419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="39" t="s">
         <v>102</v>
@@ -2432,16 +2428,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C83" s="49">
+        <v>152</v>
+      </c>
+      <c r="C83" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>1</v>
       </c>
@@ -2452,7 +2448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>111</v>
       </c>
@@ -2463,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="39" t="s">
         <v>104</v>
@@ -2472,7 +2468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="39" t="s">
         <v>105</v>
@@ -2481,8 +2477,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>128</v>
       </c>
@@ -2493,7 +2489,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="18" t="s">
         <v>131</v>
       </c>
@@ -2504,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="18"/>
       <c r="B93" s="34" t="s">
         <v>133</v>
@@ -2513,7 +2509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="18"/>
       <c r="B94" s="34" t="s">
         <v>134</v>
@@ -2522,7 +2518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="18"/>
       <c r="B95" s="34" t="s">
         <v>135</v>
@@ -2531,7 +2527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="18"/>
       <c r="B96" s="34" t="s">
         <v>136</v>
@@ -2540,7 +2536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="18"/>
       <c r="B97" s="34" t="s">
         <v>137</v>
@@ -2549,7 +2545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="18"/>
       <c r="B98" s="34" t="s">
         <v>138</v>
@@ -2558,7 +2554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="18"/>
       <c r="B99" s="34" t="s">
         <v>139</v>
@@ -2567,7 +2563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="18"/>
       <c r="B100" s="34" t="s">
         <v>140</v>
@@ -2576,7 +2572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="18"/>
       <c r="B101" s="34" t="s">
         <v>141</v>
@@ -2585,7 +2581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="18"/>
       <c r="B102" s="34" t="s">
         <v>142</v>
@@ -2594,15 +2590,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B103" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C103" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B104" s="34" t="s">
         <v>146</v>
       </c>
@@ -2610,7 +2606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="22"/>
       <c r="B105" s="36" t="s">
         <v>147</v>

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\Project\PlumTowerDefence\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\Copy\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078A99AB-7C2D-4417-A96D-124806FDCAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462814A5-6827-4EC5-A4E6-A6D8FA92FDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5628" yWindow="1176" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="163">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -650,6 +650,30 @@
   </si>
   <si>
     <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PickaxeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.04 21:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1458,23 +1482,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L30" sqref="I27:L30"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="9.875" customWidth="1"/>
-    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" customWidth="1"/>
+    <col min="11" max="11" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1516,7 @@
       <c r="K1" s="48"/>
       <c r="L1" s="49"/>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1515,7 +1539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -1538,7 +1562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1559,7 +1583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -1580,7 +1604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I6" s="26" t="s">
         <v>40</v>
       </c>
@@ -1594,7 +1618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I7" s="26" t="s">
         <v>48</v>
       </c>
@@ -1608,7 +1632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I8" s="26" t="s">
         <v>49</v>
       </c>
@@ -1622,7 +1646,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -1645,7 +1669,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>33</v>
       </c>
@@ -1668,7 +1692,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
         <v>18</v>
@@ -1689,7 +1713,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>19</v>
@@ -1710,7 +1734,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>20</v>
@@ -1731,7 +1755,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>21</v>
@@ -1752,7 +1776,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
         <v>22</v>
@@ -1773,7 +1797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>23</v>
@@ -1794,7 +1818,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>24</v>
@@ -1815,7 +1839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
         <v>25</v>
@@ -1836,7 +1860,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>26</v>
@@ -1857,7 +1881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>27</v>
@@ -1878,7 +1902,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
         <v>28</v>
@@ -1899,7 +1923,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>29</v>
@@ -1920,7 +1944,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="s">
         <v>30</v>
@@ -1941,7 +1965,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I24" s="40" t="s">
         <v>106</v>
       </c>
@@ -1955,7 +1979,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I25" s="40" t="s">
         <v>114</v>
       </c>
@@ -1969,7 +1993,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I26" s="40" t="s">
         <v>123</v>
       </c>
@@ -1983,7 +2007,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
@@ -2006,7 +2030,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="18" t="s">
         <v>41</v>
       </c>
@@ -2029,7 +2053,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="18"/>
       <c r="B29" s="24" t="s">
         <v>36</v>
@@ -2050,7 +2074,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="18"/>
       <c r="B30" s="24" t="s">
         <v>37</v>
@@ -2071,7 +2095,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="21"/>
       <c r="B31" s="25" t="s">
         <v>38</v>
@@ -2079,9 +2103,21 @@
       <c r="C31" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I31" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="J31" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="L31" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>1</v>
       </c>
@@ -2092,7 +2128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="18" t="s">
         <v>43</v>
       </c>
@@ -2103,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="18"/>
       <c r="B37" s="24" t="s">
         <v>45</v>
@@ -2112,7 +2148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>46</v>
@@ -2121,7 +2157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="21"/>
       <c r="B39" s="25" t="s">
         <v>47</v>
@@ -2130,8 +2166,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="27" t="s">
         <v>52</v>
       </c>
@@ -2142,7 +2178,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="30" t="s">
         <v>53</v>
       </c>
@@ -2153,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="30"/>
       <c r="B45" s="24" t="s">
         <v>55</v>
@@ -2162,7 +2198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="30"/>
       <c r="B46" s="24" t="s">
         <v>56</v>
@@ -2171,7 +2207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="30"/>
       <c r="B47" s="24" t="s">
         <v>57</v>
@@ -2180,7 +2216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="30"/>
       <c r="B48" s="24" t="s">
         <v>92</v>
@@ -2189,7 +2225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="30"/>
       <c r="B49" s="24" t="s">
         <v>93</v>
@@ -2198,7 +2234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="32"/>
       <c r="B50" s="25" t="s">
         <v>94</v>
@@ -2207,8 +2243,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="27" t="s">
         <v>52</v>
       </c>
@@ -2219,7 +2255,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="30" t="s">
         <v>69</v>
       </c>
@@ -2230,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>83</v>
       </c>
@@ -2238,7 +2274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="30"/>
       <c r="B57" s="24" t="s">
         <v>75</v>
@@ -2247,7 +2283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="30"/>
       <c r="B58" s="24" t="s">
         <v>76</v>
@@ -2256,7 +2292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="30"/>
       <c r="B59" s="24" t="s">
         <v>77</v>
@@ -2265,7 +2301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="21"/>
       <c r="B60" s="36" t="s">
         <v>78</v>
@@ -2274,8 +2310,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="27" t="s">
         <v>52</v>
       </c>
@@ -2286,7 +2322,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="30" t="s">
         <v>70</v>
       </c>
@@ -2297,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="30"/>
       <c r="B66" s="24" t="s">
         <v>71</v>
@@ -2306,7 +2342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="30"/>
       <c r="B67" s="24" t="s">
         <v>72</v>
@@ -2315,7 +2351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="32"/>
       <c r="B68" s="25" t="s">
         <v>73</v>
@@ -2324,8 +2360,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="15" t="s">
         <v>86</v>
       </c>
@@ -2336,7 +2372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="18" t="s">
         <v>87</v>
       </c>
@@ -2347,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="18"/>
       <c r="B72" s="34" t="s">
         <v>113</v>
@@ -2356,7 +2392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="18"/>
       <c r="B73" s="34" t="s">
         <v>102</v>
@@ -2365,12 +2401,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="16"/>
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
@@ -2381,7 +2417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>99</v>
       </c>
@@ -2392,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="39" t="s">
         <v>119</v>
@@ -2401,7 +2437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="39" t="s">
         <v>100</v>
@@ -2410,7 +2446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="39" t="s">
         <v>101</v>
@@ -2419,7 +2455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="39" t="s">
         <v>102</v>
@@ -2428,7 +2464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="39" t="s">
         <v>152</v>
@@ -2437,7 +2473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>1</v>
       </c>
@@ -2448,7 +2484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>111</v>
       </c>
@@ -2459,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
       <c r="B88" s="39" t="s">
         <v>104</v>
@@ -2468,7 +2504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
       <c r="B89" s="39" t="s">
         <v>105</v>
@@ -2477,8 +2513,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="15" t="s">
         <v>128</v>
       </c>
@@ -2489,7 +2525,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="18" t="s">
         <v>131</v>
       </c>
@@ -2500,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="18"/>
       <c r="B93" s="34" t="s">
         <v>133</v>
@@ -2509,7 +2545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="18"/>
       <c r="B94" s="34" t="s">
         <v>134</v>
@@ -2518,7 +2554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="18"/>
       <c r="B95" s="34" t="s">
         <v>135</v>
@@ -2527,7 +2563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="18"/>
       <c r="B96" s="34" t="s">
         <v>136</v>
@@ -2536,7 +2572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="18"/>
       <c r="B97" s="34" t="s">
         <v>137</v>
@@ -2545,7 +2581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="18"/>
       <c r="B98" s="34" t="s">
         <v>138</v>
@@ -2554,7 +2590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="18"/>
       <c r="B99" s="34" t="s">
         <v>139</v>
@@ -2563,7 +2599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="18"/>
       <c r="B100" s="34" t="s">
         <v>140</v>
@@ -2572,7 +2608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="18"/>
       <c r="B101" s="34" t="s">
         <v>141</v>
@@ -2581,7 +2617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="18"/>
       <c r="B102" s="34" t="s">
         <v>142</v>
@@ -2590,7 +2626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B103" s="34" t="s">
         <v>151</v>
       </c>
@@ -2598,7 +2634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B104" s="34" t="s">
         <v>146</v>
       </c>
@@ -2606,13 +2642,63 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A105" s="22"/>
       <c r="B105" s="36" t="s">
         <v>147</v>
       </c>
       <c r="C105" s="42">
         <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C110" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111" s="18"/>
+      <c r="B111" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C111" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112" s="18"/>
+      <c r="B112" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C112" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="21"/>
+      <c r="B113" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C113" s="23">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\Copy\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462814A5-6827-4EC5-A4E6-A6D8FA92FDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC2B651-3D62-4642-BE4A-0B5F601D1E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5628" yWindow="1176" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="175">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -674,6 +674,54 @@
   </si>
   <si>
     <t>09.04 21:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Typename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.05 15:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강민재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1482,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2116,6 +2164,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I32" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="J32" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="K32" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="L32" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
@@ -2699,6 +2761,64 @@
       </c>
       <c r="C113" s="23">
         <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C119" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C120" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC2B651-3D62-4642-BE4A-0B5F601D1E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF11CB65-D9AC-4D40-8BD3-37140FF48811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="209">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -714,6 +714,142 @@
   </si>
   <si>
     <t>09.05 15:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강민재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Typename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaneBuffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllHealHp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllDealHp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllHealShield</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllDealShield</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllBuffArmor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllNurfArmor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterHealHp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundHealHp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireHealHp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectricHealHp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterDealHp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundDealHp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectricDealHp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterBuffArmor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundBuffArmor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBuffArmor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectricBuffArmor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterNurfArmor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundNurfArmor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireNurfArmor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectricNurfArmor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrowBuff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlowBuff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoisonBuff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlameBuff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LazerBuff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissileBuff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.06 13:49</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1530,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2178,8 +2314,22 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I33" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="K33" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="L33" s="40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>1</v>
       </c>
@@ -2190,7 +2340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="18" t="s">
         <v>43</v>
       </c>
@@ -2201,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="18"/>
       <c r="B37" s="24" t="s">
         <v>45</v>
@@ -2210,7 +2360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="18"/>
       <c r="B38" s="24" t="s">
         <v>46</v>
@@ -2219,7 +2369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="21"/>
       <c r="B39" s="25" t="s">
         <v>47</v>
@@ -2228,8 +2378,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="27" t="s">
         <v>52</v>
       </c>
@@ -2240,7 +2390,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="30" t="s">
         <v>53</v>
       </c>
@@ -2251,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="30"/>
       <c r="B45" s="24" t="s">
         <v>55</v>
@@ -2260,7 +2410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="30"/>
       <c r="B46" s="24" t="s">
         <v>56</v>
@@ -2269,7 +2419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="30"/>
       <c r="B47" s="24" t="s">
         <v>57</v>
@@ -2278,7 +2428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="30"/>
       <c r="B48" s="24" t="s">
         <v>92</v>
@@ -2819,6 +2969,271 @@
       </c>
       <c r="C120" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B124" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125" s="1"/>
+      <c r="B125" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126" s="1"/>
+      <c r="B126" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C126" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127" s="1"/>
+      <c r="B127" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C127" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128" s="1"/>
+      <c r="B128" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C128" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129" s="1"/>
+      <c r="B129" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C129" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130" s="1"/>
+      <c r="B130" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C130" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131" s="1"/>
+      <c r="B131" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C131" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132" s="1"/>
+      <c r="B132" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C132" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133" s="1"/>
+      <c r="B133" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C133" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134" s="1"/>
+      <c r="B134" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C134" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135" s="1"/>
+      <c r="B135" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C135" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136" s="1"/>
+      <c r="B136" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C136" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137" s="1"/>
+      <c r="B137" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C137" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138" s="1"/>
+      <c r="B138" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C138" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139" s="1"/>
+      <c r="B139" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C139" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" s="1"/>
+      <c r="B140" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C140" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141" s="1"/>
+      <c r="B141" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C141" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142" s="1"/>
+      <c r="B142" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C142" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143" s="1"/>
+      <c r="B143" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C143" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144" s="1"/>
+      <c r="B144" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C144" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145" s="1"/>
+      <c r="B145" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C145" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146" s="1"/>
+      <c r="B146" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C146" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147" s="1"/>
+      <c r="B147" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C147" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148" s="1"/>
+      <c r="B148" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C148" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149" s="1"/>
+      <c r="B149" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C149" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150" s="1"/>
+      <c r="B150" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C150" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151" s="1"/>
+      <c r="B151" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C151" s="1">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seobok\Desktop\unity\TowerDefence\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF11CB65-D9AC-4D40-8BD3-37140FF48811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B3B76C-5CB7-48B1-99A4-A364B7559F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="210">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -859,6 +859,10 @@
   <si>
     <t>추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireDealHp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1668,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3095,7 +3099,7 @@
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="1"/>
       <c r="B136" s="39" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C136" s="1">
         <v>13</v>

--- a/Design/DataTable/Enums.xlsx
+++ b/Design/DataTable/Enums.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seobok\Desktop\unity\TowerDefence\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B3B76C-5CB7-48B1-99A4-A364B7559F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405C0F63-EAF6-4FDB-9C74-4E6CAE0D1915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="218">
   <si>
     <t>이 파일은 CSV파일로 저장하지 마세요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -863,13 +863,44 @@
   <si>
     <t>FireDealHp</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveType</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.13 12:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서복민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveType</t>
+  </si>
+  <si>
+    <t>Increase_Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_Emergence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,6 +945,19 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1296,7 +1340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1371,6 +1415,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1670,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1687,22 +1734,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
@@ -2332,7 +2379,20 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I34" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="J34" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="K34" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="L34" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>1</v>
@@ -3239,6 +3299,175 @@
       <c r="C151" s="1">
         <v>28</v>
       </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="B155" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156" s="1"/>
+      <c r="B156" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C156" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157" s="1"/>
+      <c r="B157" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C157" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158" s="1"/>
+      <c r="B158" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="C158" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159" s="19"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="19"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160" s="19"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="19"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161" s="19"/>
+      <c r="B161" s="24"/>
+      <c r="C161" s="19"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162" s="19"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="19"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163" s="19"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="19"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164" s="19"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="19"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165" s="19"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="19"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166" s="19"/>
+      <c r="B166" s="24"/>
+      <c r="C166" s="19"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167" s="19"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="19"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168" s="19"/>
+      <c r="B168" s="24"/>
+      <c r="C168" s="19"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169" s="19"/>
+      <c r="B169" s="24"/>
+      <c r="C169" s="19"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A170" s="19"/>
+      <c r="B170" s="24"/>
+      <c r="C170" s="19"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A171" s="19"/>
+      <c r="B171" s="24"/>
+      <c r="C171" s="19"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A172" s="19"/>
+      <c r="B172" s="24"/>
+      <c r="C172" s="19"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A173" s="19"/>
+      <c r="B173" s="24"/>
+      <c r="C173" s="19"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A174" s="19"/>
+      <c r="B174" s="24"/>
+      <c r="C174" s="19"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A175" s="19"/>
+      <c r="B175" s="24"/>
+      <c r="C175" s="19"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A176" s="19"/>
+      <c r="B176" s="24"/>
+      <c r="C176" s="19"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A177" s="19"/>
+      <c r="B177" s="24"/>
+      <c r="C177" s="19"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A178" s="19"/>
+      <c r="B178" s="24"/>
+      <c r="C178" s="19"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A179" s="19"/>
+      <c r="B179" s="24"/>
+      <c r="C179" s="19"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A180" s="19"/>
+      <c r="B180" s="24"/>
+      <c r="C180" s="19"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A181" s="19"/>
+      <c r="B181" s="24"/>
+      <c r="C181" s="19"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A182" s="19"/>
+      <c r="B182" s="24"/>
+      <c r="C182" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
